--- a/PH 424/LRC_lab/LRC_lab_rawData.xlsx
+++ b/PH 424/LRC_lab/LRC_lab_rawData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\homeworkRepo\PH 424\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\homeworkRepo\PH 424\LRC_lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="50" windowWidth="23000" windowHeight="10040" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="50" windowWidth="23000" windowHeight="10040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>Case</t>
   </si>
@@ -193,11 +193,26 @@
   <si>
     <t xml:space="preserve">phase (theory) </t>
   </si>
+  <si>
+    <t>rad/sec</t>
+  </si>
+  <si>
+    <t>Siemens</t>
+  </si>
+  <si>
+    <t>rad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular Freq </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -268,6 +283,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -283,960 +301,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Admittence!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>admittence</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Admittence!$M$2:$M$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>6283.1853071795858</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6597.3445725385654</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6911.5038378975451</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7225.6631032565238</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7665.4860747590956</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7728.3179278308908</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7853.981633974483</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8482.3001646924422</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8796.45943005142</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9110.6186954103996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9424.7779607693792</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10053.096491487338</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Admittence!$N$2:$N$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.72E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2448979591836731E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1020408163265306E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.7111111111111112E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.4714285714285707E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.5714285714285701E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.675675675675675E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.7446808510638303E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.0222222222222222E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.3333333333333331E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.8775510204081631E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.3877551020408162E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0051-4674-9273-F03C3E8AD1DC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="359058896"/>
-        <c:axId val="359056928"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="359058896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="359056928"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="359056928"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="359058896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>250825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1933,7 +997,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E27"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2679,10 +1743,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="M1:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2693,7 +1757,7 @@
     <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -2716,13 +1780,16 @@
         <v>19</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="N1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>100</v>
       </c>
@@ -2745,14 +1812,17 @@
         <f>F2/E2</f>
         <v>1.72E-3</v>
       </c>
-      <c r="M2">
-        <v>6283.1853071795858</v>
-      </c>
-      <c r="N2">
-        <v>1.72E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C3">
         <v>6597.3445725385654</v>
       </c>
@@ -2772,14 +1842,17 @@
         <f>F3/E3</f>
         <v>2.2448979591836731E-3</v>
       </c>
-      <c r="M3">
-        <v>6597.3445725385654</v>
-      </c>
-      <c r="N3">
-        <v>2.2448979591836731E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M3" s="4">
+        <v>6283.1853071795858</v>
+      </c>
+      <c r="N3" s="6">
+        <v>1.72E-3</v>
+      </c>
+      <c r="O3" s="5">
+        <v>-1.4074335088082273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C4">
         <v>6911.5038378975451</v>
       </c>
@@ -2799,14 +1872,17 @@
         <f t="shared" ref="H4:H13" si="0">F4/E4</f>
         <v>3.1020408163265306E-3</v>
       </c>
-      <c r="M4">
-        <v>6911.5038378975451</v>
-      </c>
-      <c r="N4">
-        <v>3.1020408163265306E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M4" s="4">
+        <v>6597.3445725385654</v>
+      </c>
+      <c r="N4" s="6">
+        <v>2.2448979591836731E-3</v>
+      </c>
+      <c r="O4" s="5">
+        <v>-1.3194689145077132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C5">
         <v>7225.6631032565238</v>
       </c>
@@ -2826,14 +1902,17 @@
         <f t="shared" si="0"/>
         <v>4.7111111111111112E-3</v>
       </c>
-      <c r="M5">
-        <v>7225.6631032565238</v>
-      </c>
-      <c r="N5">
-        <v>4.7111111111111112E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M5" s="4">
+        <v>6911.5038378975451</v>
+      </c>
+      <c r="N5" s="6">
+        <v>3.1020408163265306E-3</v>
+      </c>
+      <c r="O5" s="5">
+        <v>-1.3270087368763286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C6">
         <v>7665.4860747590956</v>
       </c>
@@ -2853,14 +1932,17 @@
         <f t="shared" si="0"/>
         <v>8.4714285714285707E-3</v>
       </c>
-      <c r="M6">
-        <v>7665.4860747590956</v>
-      </c>
-      <c r="N6">
-        <v>8.4714285714285707E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M6" s="4">
+        <v>7225.6631032565238</v>
+      </c>
+      <c r="N6" s="6">
+        <v>4.7111111111111112E-3</v>
+      </c>
+      <c r="O6" s="5">
+        <v>-0.92488487721683499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C7">
         <v>7728.3179278308908</v>
       </c>
@@ -2880,14 +1962,17 @@
         <f t="shared" si="0"/>
         <v>8.5714285714285701E-3</v>
       </c>
-      <c r="M7">
-        <v>7728.3179278308908</v>
-      </c>
-      <c r="N7">
-        <v>8.5714285714285701E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M7" s="4">
+        <v>7665.4860747590956</v>
+      </c>
+      <c r="N7" s="6">
+        <v>8.4714285714285707E-3</v>
+      </c>
+      <c r="O7" s="5">
+        <v>-0.12264777719614552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C8">
         <v>7853.981633974483</v>
       </c>
@@ -2907,14 +1992,17 @@
         <f t="shared" si="0"/>
         <v>7.675675675675675E-3</v>
       </c>
-      <c r="M8">
-        <v>7853.981633974483</v>
-      </c>
-      <c r="N8">
-        <v>7.675675675675675E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M8" s="4">
+        <v>7728.3179278308908</v>
+      </c>
+      <c r="N8" s="6">
+        <v>8.5714285714285701E-3</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C9">
         <v>8482.3001646924422</v>
       </c>
@@ -2934,14 +2022,17 @@
         <f t="shared" si="0"/>
         <v>3.7446808510638303E-3</v>
       </c>
-      <c r="M9">
-        <v>8482.3001646924422</v>
-      </c>
-      <c r="N9">
-        <v>3.7446808510638303E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M9" s="4">
+        <v>7853.981633974483</v>
+      </c>
+      <c r="N9" s="6">
+        <v>7.675675675675675E-3</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.4398229715025711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C10">
         <v>8796.45943005142</v>
       </c>
@@ -2961,14 +2052,17 @@
         <f t="shared" si="0"/>
         <v>3.0222222222222222E-3</v>
       </c>
-      <c r="M10">
-        <v>8796.45943005142</v>
-      </c>
-      <c r="N10">
-        <v>3.0222222222222222E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M10" s="4">
+        <v>8482.3001646924422</v>
+      </c>
+      <c r="N10" s="6">
+        <v>3.7446808510638303E-3</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1.153592822398172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>9110.6186954103996</v>
       </c>
@@ -2988,14 +2082,17 @@
         <f t="shared" si="0"/>
         <v>2.3333333333333331E-3</v>
       </c>
-      <c r="M11">
-        <v>9110.6186954103996</v>
-      </c>
-      <c r="N11">
-        <v>2.3333333333333331E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M11" s="4">
+        <v>8796.45943005142</v>
+      </c>
+      <c r="N11" s="6">
+        <v>3.0222222222222222E-3</v>
+      </c>
+      <c r="O11" s="5">
+        <v>1.2666901579274044</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>9424.7779607693792</v>
       </c>
@@ -3015,14 +2112,17 @@
         <f t="shared" si="0"/>
         <v>1.8775510204081631E-3</v>
       </c>
-      <c r="M12">
-        <v>9424.7779607693792</v>
-      </c>
-      <c r="N12">
-        <v>1.8775510204081631E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M12" s="4">
+        <v>9110.6186954103996</v>
+      </c>
+      <c r="N12" s="6">
+        <v>2.3333333333333331E-3</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1.3848140417023804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C13">
         <v>10053.096491487338</v>
       </c>
@@ -3042,16 +2142,30 @@
         <f t="shared" si="0"/>
         <v>1.3877551020408162E-3</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="4">
+        <v>9424.7779607693792</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1.8775510204081631E-3</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1.5079644737231006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M14" s="4">
         <v>10053.096491487338</v>
       </c>
-      <c r="N13">
+      <c r="N14" s="6">
         <v>1.3877551020408162E-3</v>
+      </c>
+      <c r="O14" s="5">
+        <v>1.5280706667060751</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3059,8 +2173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
